--- a/matlab/statistics/MeanSthdRanalysis.xlsx
+++ b/matlab/statistics/MeanSthdRanalysis.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3942D12C-5961-4068-A86B-BE82E604535B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11790A19-6057-42FD-9293-992009D26EF5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
   <si>
     <t>Observation</t>
   </si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>SharpnessThreshold</t>
+  </si>
+  <si>
+    <t>noobject</t>
   </si>
 </sst>
 </file>
@@ -137,13 +146,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,19 +436,19 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G2" sqref="G2:G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,8 +467,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -478,8 +490,12 @@
       <c r="F2" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G2" s="7">
+        <f>E2-F2</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -498,8 +514,12 @@
       <c r="F3" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G13" si="0">E3-F3</f>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -518,8 +538,12 @@
       <c r="F4" s="2">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -538,8 +562,12 @@
       <c r="F5" s="2">
         <v>0.08</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -558,9 +586,13 @@
       <c r="F6" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8699999999999999</v>
+      </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -579,8 +611,12 @@
       <c r="F7" s="2">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8699999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -599,8 +635,12 @@
       <c r="F8" s="4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -619,8 +659,12 @@
       <c r="F9" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9799999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -639,8 +683,12 @@
       <c r="F10" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -659,8 +707,12 @@
       <c r="F11" s="4">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -679,8 +731,12 @@
       <c r="F12" s="4">
         <v>0.03</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -699,17 +755,12 @@
       <c r="F13" s="4">
         <v>0.03</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-    </row>
-    <row r="14" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H14" s="5"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -718,10 +769,8 @@
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-    </row>
-    <row r="15" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -731,70 +780,32 @@
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-    </row>
-    <row r="17" spans="8:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+    </row>
+    <row r="17" spans="9:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-    </row>
-    <row r="18" spans="8:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+    </row>
+    <row r="18" spans="9:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-    </row>
-    <row r="19" spans="8:17" x14ac:dyDescent="0.35">
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-    </row>
-    <row r="20" spans="8:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
+    </row>
+    <row r="20" spans="9:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
-    </row>
-    <row r="21" spans="8:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H21" s="7"/>
+    </row>
+    <row r="21" spans="9:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -805,8 +816,7 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="6"/>
     </row>
-    <row r="22" spans="8:17" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="H22" s="7"/>
+    <row r="22" spans="9:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
